--- a/Master/master/Collision.xlsx
+++ b/Master/master/Collision.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t xml:space="preserve">$MEMBERS</t>
   </si>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t xml:space="preserve">ReactionPower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OffsetX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OffsetY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OffsetZ</t>
   </si>
   <si>
     <t xml:space="preserve">int</t>
@@ -152,13 +161,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:H8"/>
+  <dimension ref="A2:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.57"/>
@@ -195,33 +204,51 @@
       <c r="H2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -243,6 +270,15 @@
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -267,6 +303,15 @@
       <c r="H5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="I5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -290,6 +335,15 @@
       <c r="H6" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -313,6 +367,15 @@
       <c r="H7" s="0" t="n">
         <v>100</v>
       </c>
+      <c r="I7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="n">
@@ -335,6 +398,15 @@
       </c>
       <c r="H8" s="0" t="n">
         <v>100</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Master/master/Collision.xlsx
+++ b/Master/master/Collision.xlsx
@@ -164,10 +164,10 @@
   <dimension ref="A2:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
+      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.57"/>
@@ -365,7 +365,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0</v>
@@ -397,7 +397,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>0</v>

--- a/Master/master/Collision.xlsx
+++ b/Master/master/Collision.xlsx
@@ -167,7 +167,7 @@
       <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.57"/>
@@ -365,7 +365,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>0</v>

--- a/Master/master/Collision.xlsx
+++ b/Master/master/Collision.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t xml:space="preserve">$MEMBERS</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">byte</t>
   </si>
   <si>
     <t xml:space="preserve">$ITEMS</t>
@@ -164,10 +167,10 @@
   <dimension ref="A2:K8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.57"/>
@@ -231,7 +234,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>12</v>
@@ -248,7 +251,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
